--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test-server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55343A4C-E922-4791-87E0-00FA98E8127A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EB9AAFAC-69AF-4AE2-B065-63C4F1FA3F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FCA49B-65DE-48BA-8632-9F330C2DFD56}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A323DD1-B6D1-43A5-B75B-4E25607BDF68}"/>
   </bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF84092-840D-40E6-B1A2-8A18FACE79B2}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Sheminar-py-server\CF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EB9AAFAC-69AF-4AE2-B065-63C4F1FA3F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FCA49B-65DE-48BA-8632-9F330C2DFD56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0A323DD1-B6D1-43A5-B75B-4E25607BDF68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -395,14 +392,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF84092-840D-40E6-B1A2-8A18FACE79B2}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -423,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -467,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -478,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -585,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -599,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,35 +627,13 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6</v>
+        <v>100000</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3242424</v>
       </c>
       <c r="C21">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Sheminar-py-server\CF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776C9EB2-7333-49DA-969B-5C8945125347}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>960704</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>985939</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>667257</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>960704</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>985939</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>496243</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>192102</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1268</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>960704</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>436270</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>959326</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1268</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>960704</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>959326</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>436270</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -586,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>985939</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>436270</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>960704</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -619,20 +619,9 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>667257</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>100000</v>
-      </c>
-      <c r="B21">
-        <v>3242424</v>
-      </c>
-      <c r="C21">
         <v>1</v>
       </c>
     </row>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776C9EB2-7333-49DA-969B-5C8945125347}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,237 +419,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col width="50.42578125" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>985939</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>667257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>985939</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>496243</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>192102</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B10" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>436270</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>959326</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>959326</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>436270</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>985939</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>436270</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>960704</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>985939</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>667257</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>960704</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>985939</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>496243</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>192102</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1268</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>960704</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
+      <c r="B20" t="n">
         <v>436270</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>959326</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>1268</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C20" t="n">
         <v>3</v>
-      </c>
-      <c r="B14">
-        <v>960704</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>959326</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>436270</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>985939</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>436270</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>960704</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>667257</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -9,18 +9,25 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -45,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +432,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -458,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>960704</v>
+        <v>616820</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -469,196 +477,273 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
+        <v>61680</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>960704</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>985939</v>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>667257</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>960704</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>985939</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>496243</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <v>192102</v>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="n">
         <v>1268</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" s="1" t="n">
         <v>960704</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" s="1" t="n">
         <v>436270</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" s="1" t="n">
         <v>959326</v>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" s="1" t="n">
         <v>1268</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="n">
         <v>960704</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>959326</v>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="n">
         <v>436270</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" s="1" t="n">
         <v>985939</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" s="1" t="n">
         <v>436270</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="C20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" s="1" t="n">
         <v>960704</v>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
-      </c>
-      <c r="B20" t="n">
-        <v>436270</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>575322</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>575322</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>575322</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>616820</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>354912</v>
+      </c>
+      <c r="C27" t="n">
         <v>3</v>
       </c>
     </row>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Sheminar-py-server\CF\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,248 +419,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col width="50.42578125" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
         <v>2</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>5</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B21" t="n">
+        <v>285</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>100000</v>
-      </c>
-      <c r="B21">
-        <v>3242424</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>934641</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -1,33 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Sheminar-py-server\CF\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +78,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,280 +392,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="50.42578125" customWidth="1" min="1" max="1"/>
-    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>user_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>item_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>285</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>934641</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1735</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3</v>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21">
+        <v>3242424</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\GitHub\Sheminar-py-server\CF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65B8B7E-CE7E-4061-920D-C194C6D6CA3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +421,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>747803</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -432,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>315162</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,10 +443,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>60405</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>11224</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>315162</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>11224</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>747803</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>60405</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>851644</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>747803</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,10 +542,10 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>315162</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>851644</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,10 +575,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>315162</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -597,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>315162</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,10 +608,10 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>747803</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,21 +619,21 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>11224</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100000</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>3242424</v>
+        <v>747803</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/CF/data.xlsx
+++ b/CF/data.xlsx
@@ -1,65 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b3f4bae0c2687e0/Documents/GitHub/Sheminar-py-server/CF/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{65992CCA-6387-4378-83B8-1E57B9F9FBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65B8B7E-CE7E-4061-920D-C194C6D6CA3C}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,247 +419,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col width="50.42578125" customWidth="1" min="1" max="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="n">
+        <v>747803</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>315162</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>60405</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11224</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" t="n">
+        <v>315162</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11224</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>747803</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60405</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B10" t="n">
+        <v>121</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>851644</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="n">
         <v>747803</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
         <v>315162</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>60405</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>121</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>851644</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>315162</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>121</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>315162</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>747803</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
         <v>11224</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>315162</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>11224</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>747803</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>60405</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>121</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>851644</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>747803</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>315162</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>121</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>851644</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>315162</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>121</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>315162</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>747803</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>11224</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>747803</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="n">
+        <v>921661</v>
+      </c>
+      <c r="C21" t="n">
         <v>3</v>
       </c>
     </row>
